--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F362D2-5DC8-4F0A-B952-9F0ED768C7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78040003-ECB7-4F5B-B933-BF02AE4E06B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{7E729B53-DCD7-4654-B3AB-6C85632477A0}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{A6394D1F-EE0B-4587-9D5F-EF691D9AC207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97620847-DEE2-4C48-8DC8-5C171AB183F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639BA14-8C82-4147-B511-4FDBE29C1341}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78040003-ECB7-4F5B-B933-BF02AE4E06B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA5E51-E6E9-4C43-A4E6-F9A0BD02E695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{A6394D1F-EE0B-4587-9D5F-EF691D9AC207}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{808EF77A-2D6D-4C10-B4DC-8D036EE7767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639BA14-8C82-4147-B511-4FDBE29C1341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8154262-3C4A-45E1-8E72-86467030FB93}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
